--- a/DataBase/Biodiversity/Translated/Metadata_translation_English.xlsx
+++ b/DataBase/Biodiversity/Translated/Metadata_translation_English.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lordn\Desktop\RWS\Biodiversity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LARISSA\Desktop\HZ\DataFest\RWS\Biodiversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7DBB44-07CF-4699-8A39-25B98BF4BDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7030" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Translation" sheetId="4" r:id="rId1"/>
     <sheet name="BEMSPAPRT" sheetId="5" r:id="rId2"/>
     <sheet name="Pargroup" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="230">
   <si>
     <t>Label translated</t>
   </si>
@@ -572,12 +571,168 @@
   </si>
   <si>
     <t>weekdieren (slakken)</t>
+  </si>
+  <si>
+    <t>Description in English</t>
+  </si>
+  <si>
+    <t>owner of data</t>
+  </si>
+  <si>
+    <t>ANA=analyzing instance, SMP=sampling instance</t>
+  </si>
+  <si>
+    <t>Location names</t>
+  </si>
+  <si>
+    <t>unique sample number</t>
+  </si>
+  <si>
+    <t>number generated by the aquadesk</t>
+  </si>
+  <si>
+    <t>ME.AB, Macro-invertebrate abundance</t>
+  </si>
+  <si>
+    <t>MM=MACEV_S017,AM=MACEV_A018; unique number linked to the sampling and analysis instructions</t>
+  </si>
+  <si>
+    <t>PM=Deep milieu. LM= coastal milieu</t>
+  </si>
+  <si>
+    <t>used quantities: NUMBER OF BEMSRAPRT DEPTH EXPSTDR, exposure duration= time the bags have been in the water OPPVTE SUBSMTRAL VOLME</t>
+  </si>
+  <si>
+    <t>taxon names</t>
+  </si>
+  <si>
+    <t>GS sex LS life stage JU juvenile AD adult LA larva NY nymph PO pupa</t>
+  </si>
+  <si>
+    <t>Taxon was found but not counted.</t>
+  </si>
+  <si>
+    <t>NA not present/not analysed. These values are the actual number of animals identified</t>
+  </si>
+  <si>
+    <t>unit of value: cm centimeter, d days, DIMSL dimensionless, l liter, m2 square meter, n number</t>
+  </si>
+  <si>
+    <t>calculated value for the entire sample</t>
+  </si>
+  <si>
+    <t>used sampling device, see separate table</t>
+  </si>
+  <si>
+    <t>see unit measured</t>
+  </si>
+  <si>
+    <t>55 analysed, 65 validated and published</t>
+  </si>
+  <si>
+    <t>group classification of the different taxa, see separate</t>
+  </si>
+  <si>
+    <t>macrofauna handnet 0.30m wide * 5 meters total sampled = 1.5 m2</t>
+  </si>
+  <si>
+    <t>Stones by hand or by grab sum of all sides of the sampled stones in m2</t>
+  </si>
+  <si>
+    <t>bag (coarse net) filled with 4 liters of stones 2 bags are sampled = 8 litres</t>
+  </si>
+  <si>
+    <t>Van Veenhapper often 5 * 0.0250 = 0.125 m2</t>
+  </si>
+  <si>
+    <t>boxcorrer 5 bites of 20 * 30 cm each = 0.3 m2</t>
+  </si>
+  <si>
+    <t>Often a sediment sample is taken from 1 of the box corer using a sample tube with a surface area of 0.006 m2</t>
+  </si>
+  <si>
+    <t>leeches</t>
+  </si>
+  <si>
+    <t>many bristle worms</t>
+  </si>
+  <si>
+    <t>bristle worms</t>
+  </si>
+  <si>
+    <t>flatworms</t>
+  </si>
+  <si>
+    <t>water mites</t>
+  </si>
+  <si>
+    <t>bryozoans-hydroid polyps-sponges</t>
+  </si>
+  <si>
+    <t>amphipods</t>
+  </si>
+  <si>
+    <t>decapods (lobsters crabs and shrimps)</t>
+  </si>
+  <si>
+    <t>woodlice</t>
+  </si>
+  <si>
+    <t>bait shrimp</t>
+  </si>
+  <si>
+    <t>other crustaceans</t>
+  </si>
+  <si>
+    <t>echinoderms</t>
+  </si>
+  <si>
+    <t>mosquito larvae</t>
+  </si>
+  <si>
+    <t>other fly larvae</t>
+  </si>
+  <si>
+    <t>tickling mosquitoes</t>
+  </si>
+  <si>
+    <t>beetle larvae</t>
+  </si>
+  <si>
+    <t>mayflies</t>
+  </si>
+  <si>
+    <t>bugs</t>
+  </si>
+  <si>
+    <t>butterfly larvae</t>
+  </si>
+  <si>
+    <t>dragonflies</t>
+  </si>
+  <si>
+    <t>other insects</t>
+  </si>
+  <si>
+    <t>caddies</t>
+  </si>
+  <si>
+    <t>other marine species</t>
+  </si>
+  <si>
+    <t>molluscs (bivalves)</t>
+  </si>
+  <si>
+    <t>mollusks (snails)</t>
+  </si>
+  <si>
+    <t>In English</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -721,12 +876,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Komma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Komma 2" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standaard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Standaard 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Standaard 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Standaard 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Standaard 2" xfId="2"/>
+    <cellStyle name="Standaard 2 2" xfId="1"/>
+    <cellStyle name="Standaard 3" xfId="3"/>
+    <cellStyle name="Standaard 3 2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1003,23 +1158,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2A3487-AE87-4FE4-9061-08E566E09D43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.36328125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.26953125" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1029,8 +1184,11 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1040,19 +1198,22 @@
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D2" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1062,8 +1223,11 @@
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1237,11 @@
       <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1085,10 +1252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1096,7 +1260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1107,15 +1271,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1126,7 +1287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1136,8 +1297,11 @@
       <c r="C11" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -1147,8 +1311,11 @@
       <c r="C12" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1158,8 +1325,11 @@
       <c r="C13" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1170,7 +1340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1180,8 +1350,11 @@
       <c r="C15" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -1191,8 +1364,11 @@
       <c r="C16" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -1203,15 +1379,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>47</v>
-      </c>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
@@ -1221,8 +1394,11 @@
       <c r="C19" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
@@ -1233,7 +1409,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
@@ -1243,27 +1419,27 @@
       <c r="C21" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D21" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="D22" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>60</v>
       </c>
@@ -1273,8 +1449,11 @@
       <c r="C24" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>63</v>
       </c>
@@ -1284,8 +1463,11 @@
       <c r="C25" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>66</v>
       </c>
@@ -1295,8 +1477,11 @@
       <c r="C26" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
@@ -1306,8 +1491,11 @@
       <c r="C27" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>72</v>
       </c>
@@ -1317,8 +1505,11 @@
       <c r="C28" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>75</v>
       </c>
@@ -1328,8 +1519,11 @@
       <c r="C29" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>78</v>
       </c>
@@ -1339,335 +1533,338 @@
       <c r="C30" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>81</v>
-      </c>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="D32" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
       <c r="D38" s="10"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
       <c r="D41" s="10"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
       <c r="D42" s="10"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
       <c r="D43" s="10"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
       <c r="D44" s="10"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
       <c r="D46" s="10"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
       <c r="D48" s="10"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
       <c r="D50" s="10"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
       <c r="D51" s="10"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
       <c r="D52" s="10"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
       <c r="D54" s="10"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
       <c r="D55" s="10"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
       <c r="D56" s="10"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
       <c r="D57" s="10"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
       <c r="D58" s="10"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
       <c r="D59" s="10"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
       <c r="D60" s="10"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
       <c r="D61" s="10"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
       <c r="D63" s="10"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
       <c r="D64" s="10"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
       <c r="D65" s="10"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
       <c r="D66" s="11"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
       <c r="D68" s="11"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
     </row>
@@ -1678,24 +1875,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288FEBF2-4A4F-4300-A350-35ADCAD3A635}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>83</v>
       </c>
@@ -1706,7 +1903,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -1718,7 +1915,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>89</v>
       </c>
@@ -1730,7 +1927,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>92</v>
       </c>
@@ -1742,7 +1939,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>95</v>
       </c>
@@ -1754,7 +1951,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
@@ -1766,275 +1963,287 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
       <c r="C7" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="12"/>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="12"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="12"/>
       <c r="E42" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
     </row>
   </sheetData>
@@ -2044,29 +2253,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE1491A-AE0A-4EE3-B932-1EF6B8AD91F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.08984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>103</v>
       </c>
@@ -2076,9 +2288,11 @@
       <c r="C2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>106</v>
       </c>
@@ -2088,9 +2302,11 @@
       <c r="C3" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>109</v>
       </c>
@@ -2100,9 +2316,11 @@
       <c r="C4" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>112</v>
       </c>
@@ -2112,9 +2330,11 @@
       <c r="C5" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>115</v>
       </c>
@@ -2124,9 +2344,11 @@
       <c r="C6" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>118</v>
       </c>
@@ -2136,9 +2358,11 @@
       <c r="C7" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>121</v>
       </c>
@@ -2148,9 +2372,11 @@
       <c r="C8" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>124</v>
       </c>
@@ -2160,9 +2386,11 @@
       <c r="C9" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>127</v>
       </c>
@@ -2172,9 +2400,11 @@
       <c r="C10" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>130</v>
       </c>
@@ -2184,9 +2414,11 @@
       <c r="C11" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>133</v>
       </c>
@@ -2196,9 +2428,11 @@
       <c r="C12" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>136</v>
       </c>
@@ -2208,9 +2442,11 @@
       <c r="C13" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>139</v>
       </c>
@@ -2220,9 +2456,11 @@
       <c r="C14" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>142</v>
       </c>
@@ -2232,9 +2470,11 @@
       <c r="C15" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>145</v>
       </c>
@@ -2244,9 +2484,11 @@
       <c r="C16" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>148</v>
       </c>
@@ -2256,9 +2498,11 @@
       <c r="C17" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>151</v>
       </c>
@@ -2268,9 +2512,11 @@
       <c r="C18" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>154</v>
       </c>
@@ -2280,9 +2526,11 @@
       <c r="C19" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>157</v>
       </c>
@@ -2292,9 +2540,11 @@
       <c r="C20" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>160</v>
       </c>
@@ -2304,9 +2554,11 @@
       <c r="C21" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>163</v>
       </c>
@@ -2316,9 +2568,11 @@
       <c r="C22" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>166</v>
       </c>
@@ -2328,9 +2582,11 @@
       <c r="C23" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>169</v>
       </c>
@@ -2340,9 +2596,11 @@
       <c r="C24" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>172</v>
       </c>
@@ -2352,9 +2610,11 @@
       <c r="C25" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>175</v>
       </c>
@@ -2364,271 +2624,273 @@
       <c r="C26" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="12"/>
       <c r="E59" s="11"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="12"/>
       <c r="E60" s="11"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="12"/>
       <c r="E61" s="11"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
     </row>
   </sheetData>
@@ -2638,6 +2900,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8fd29a78-e315-4278-b2dd-d2e2c223ae5c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2a6ad9cf-3093-4c99-8f80-81355efdbac7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFCD2628397B32419C9ED3D6FE5CA029" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="494745460cea076b7df8d7c5d6896868">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a6ad9cf-3093-4c99-8f80-81355efdbac7" xmlns:ns3="8fd29a78-e315-4278-b2dd-d2e2c223ae5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="632f2ed3c179937ae18128a1069dbf56" ns2:_="" ns3:_="">
     <xsd:import namespace="2a6ad9cf-3093-4c99-8f80-81355efdbac7"/>
@@ -2874,7 +3147,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2883,18 +3156,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8fd29a78-e315-4278-b2dd-d2e2c223ae5c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2a6ad9cf-3093-4c99-8f80-81355efdbac7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{001D9B0F-CDDF-448E-ACE8-48D0613D3A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8fd29a78-e315-4278-b2dd-d2e2c223ae5c"/>
+    <ds:schemaRef ds:uri="2a6ad9cf-3093-4c99-8f80-81355efdbac7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB0A90-D35D-4C4D-834D-FEE42FEA36E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2913,21 +3186,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A538D943-FF22-415A-8070-B6C07B83D716}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{001D9B0F-CDDF-448E-ACE8-48D0613D3A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8fd29a78-e315-4278-b2dd-d2e2c223ae5c"/>
-    <ds:schemaRef ds:uri="2a6ad9cf-3093-4c99-8f80-81355efdbac7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DataBase/Biodiversity/Translated/Metadata_translation_English.xlsx
+++ b/DataBase/Biodiversity/Translated/Metadata_translation_English.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LARISSA\Desktop\HZ\DataFest\RWS\Biodiversity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theoE\Documents\GitHub\DataFest2023Team10\DataBase\Biodiversity\Translated\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49EE435-58C9-469B-A037-605B7E1834B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7030" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translation" sheetId="4" r:id="rId1"/>
@@ -21,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="234">
   <si>
     <t>Label translated</t>
   </si>
@@ -591,96 +581,42 @@
     <t>number generated by the aquadesk</t>
   </si>
   <si>
-    <t>ME.AB, Macro-invertebrate abundance</t>
-  </si>
-  <si>
     <t>MM=MACEV_S017,AM=MACEV_A018; unique number linked to the sampling and analysis instructions</t>
   </si>
   <si>
-    <t>PM=Deep milieu. LM= coastal milieu</t>
-  </si>
-  <si>
-    <t>used quantities: NUMBER OF BEMSRAPRT DEPTH EXPSTDR, exposure duration= time the bags have been in the water OPPVTE SUBSMTRAL VOLME</t>
-  </si>
-  <si>
     <t>taxon names</t>
   </si>
   <si>
-    <t>GS sex LS life stage JU juvenile AD adult LA larva NY nymph PO pupa</t>
-  </si>
-  <si>
     <t>Taxon was found but not counted.</t>
   </si>
   <si>
     <t>NA not present/not analysed. These values are the actual number of animals identified</t>
   </si>
   <si>
-    <t>unit of value: cm centimeter, d days, DIMSL dimensionless, l liter, m2 square meter, n number</t>
-  </si>
-  <si>
     <t>calculated value for the entire sample</t>
   </si>
   <si>
-    <t>used sampling device, see separate table</t>
-  </si>
-  <si>
     <t>see unit measured</t>
   </si>
   <si>
     <t>55 analysed, 65 validated and published</t>
   </si>
   <si>
-    <t>group classification of the different taxa, see separate</t>
-  </si>
-  <si>
-    <t>macrofauna handnet 0.30m wide * 5 meters total sampled = 1.5 m2</t>
-  </si>
-  <si>
-    <t>Stones by hand or by grab sum of all sides of the sampled stones in m2</t>
-  </si>
-  <si>
-    <t>bag (coarse net) filled with 4 liters of stones 2 bags are sampled = 8 litres</t>
-  </si>
-  <si>
-    <t>Van Veenhapper often 5 * 0.0250 = 0.125 m2</t>
-  </si>
-  <si>
-    <t>boxcorrer 5 bites of 20 * 30 cm each = 0.3 m2</t>
-  </si>
-  <si>
     <t>Often a sediment sample is taken from 1 of the box corer using a sample tube with a surface area of 0.006 m2</t>
   </si>
   <si>
     <t>leeches</t>
   </si>
   <si>
-    <t>many bristle worms</t>
-  </si>
-  <si>
-    <t>bristle worms</t>
-  </si>
-  <si>
     <t>flatworms</t>
   </si>
   <si>
     <t>water mites</t>
   </si>
   <si>
-    <t>bryozoans-hydroid polyps-sponges</t>
-  </si>
-  <si>
     <t>amphipods</t>
   </si>
   <si>
-    <t>decapods (lobsters crabs and shrimps)</t>
-  </si>
-  <si>
-    <t>woodlice</t>
-  </si>
-  <si>
-    <t>bait shrimp</t>
-  </si>
-  <si>
     <t>other crustaceans</t>
   </si>
   <si>
@@ -693,18 +629,12 @@
     <t>other fly larvae</t>
   </si>
   <si>
-    <t>tickling mosquitoes</t>
-  </si>
-  <si>
     <t>beetle larvae</t>
   </si>
   <si>
     <t>mayflies</t>
   </si>
   <si>
-    <t>bugs</t>
-  </si>
-  <si>
     <t>butterfly larvae</t>
   </si>
   <si>
@@ -714,25 +644,97 @@
     <t>other insects</t>
   </si>
   <si>
-    <t>caddies</t>
-  </si>
-  <si>
     <t>other marine species</t>
   </si>
   <si>
-    <t>molluscs (bivalves)</t>
-  </si>
-  <si>
-    <t>mollusks (snails)</t>
-  </si>
-  <si>
     <t>In English</t>
+  </si>
+  <si>
+    <t>GS (sex), LS (life stage), JU (juvenile), AD (adult), LA (larva), NY (nymph), PO (pupa)</t>
+  </si>
+  <si>
+    <t>used quantities: AANTL (amount), BEMSRAPRT (soil status report?), DIEPTE (depth), EXPSTDR (exposure duration= time the bags have been in the water), OPPVTE (surface), SUBSMTRAL (???), VOLME (volume)</t>
+  </si>
+  <si>
+    <t>ME.AB=Macro-invertebrate abundance</t>
+  </si>
+  <si>
+    <t>PM=Profundal milieu, LM= coastal milieu</t>
+  </si>
+  <si>
+    <t>unit of value: cm (centimeter), d (days), DIMSL (dimensionless), l (liter), m2 (square meter), n (number/amount)</t>
+  </si>
+  <si>
+    <t>used sampling device (see separate table)</t>
+  </si>
+  <si>
+    <t>group classification of the different taxa, see separate table</t>
+  </si>
+  <si>
+    <t>macrofauna handnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.30m wide * 5 meters total sampled = 1.5 m2</t>
+  </si>
+  <si>
+    <t>Stones by hand or by grab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sum of all sides of the sampled stones in m2</t>
+  </si>
+  <si>
+    <t>bag (coarse net) filled with 4 liters of stones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 bags are sampled = 8 litres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> often 5 * 0.0250 = 0.125 m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boxcorrer </t>
+  </si>
+  <si>
+    <t>5 bites of 20 * 30 cm each = 0.3 m2</t>
+  </si>
+  <si>
+    <t>decapods (lobsters, crabs and shrimps)</t>
+  </si>
+  <si>
+    <t>Isopoda</t>
+  </si>
+  <si>
+    <t>Mysida</t>
+  </si>
+  <si>
+    <t>many bristle worms/olychaetes</t>
+  </si>
+  <si>
+    <t>bristle worms/polychaetes</t>
+  </si>
+  <si>
+    <t>bryozoans-Hydrozoas-sponges</t>
+  </si>
+  <si>
+    <t>blackfly</t>
+  </si>
+  <si>
+    <t>Heteroptera</t>
+  </si>
+  <si>
+    <t>Caddisfly</t>
+  </si>
+  <si>
+    <t>Mollusca (bivalves)</t>
+  </si>
+  <si>
+    <t>Mollusca (snails)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -876,12 +878,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Komma 2" xfId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standaard 2" xfId="2"/>
-    <cellStyle name="Standaard 2 2" xfId="1"/>
-    <cellStyle name="Standaard 3" xfId="3"/>
-    <cellStyle name="Standaard 3 2" xfId="5"/>
+    <cellStyle name="Komma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Standaard 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Standaard 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Standaard 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1158,19 +1160,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.36328125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.3984375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="146.19921875" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1326,7 +1328,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1340,7 +1342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1351,7 +1353,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1365,7 +1367,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,7 +1386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
@@ -1395,7 +1397,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1420,7 +1422,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1431,7 +1433,7 @@
         <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1450,7 +1452,7 @@
         <v>62</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1464,10 +1466,10 @@
         <v>65</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>66</v>
       </c>
@@ -1478,7 +1480,7 @@
         <v>68</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1492,7 +1494,7 @@
         <v>71</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1506,7 +1508,7 @@
         <v>74</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1520,7 +1522,7 @@
         <v>77</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1534,7 +1536,7 @@
         <v>80</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1548,7 +1550,7 @@
         <v>82</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -1559,7 +1561,7 @@
         <v>82</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -1875,20 +1877,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.296875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1972,54 +1974,63 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>214</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>215</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>216</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="10"/>
+        <v>218</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>219</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>220</v>
+      </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="10"/>
+        <v>221</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
@@ -2253,20 +2264,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.08984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.19921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.296875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -2275,7 +2286,7 @@
         <v>102</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2289,7 +2300,7 @@
         <v>105</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2303,7 +2314,7 @@
         <v>108</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2317,7 +2328,7 @@
         <v>111</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2331,7 +2342,7 @@
         <v>114</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2345,7 +2356,7 @@
         <v>117</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2359,7 +2370,7 @@
         <v>120</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2373,7 +2384,7 @@
         <v>123</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2387,7 +2398,7 @@
         <v>126</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2401,7 +2412,7 @@
         <v>129</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2415,7 +2426,7 @@
         <v>132</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2429,7 +2440,7 @@
         <v>135</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2443,7 +2454,7 @@
         <v>138</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2457,7 +2468,7 @@
         <v>141</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2471,7 +2482,7 @@
         <v>144</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2485,7 +2496,7 @@
         <v>147</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2499,7 +2510,7 @@
         <v>150</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2513,7 +2524,7 @@
         <v>153</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2527,7 +2538,7 @@
         <v>156</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2541,7 +2552,7 @@
         <v>159</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2555,7 +2566,7 @@
         <v>162</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2569,7 +2580,7 @@
         <v>165</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2583,7 +2594,7 @@
         <v>168</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2597,7 +2608,7 @@
         <v>171</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2611,7 +2622,7 @@
         <v>174</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2625,7 +2636,7 @@
         <v>177</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2911,6 +2922,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFCD2628397B32419C9ED3D6FE5CA029" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="494745460cea076b7df8d7c5d6896868">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a6ad9cf-3093-4c99-8f80-81355efdbac7" xmlns:ns3="8fd29a78-e315-4278-b2dd-d2e2c223ae5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="632f2ed3c179937ae18128a1069dbf56" ns2:_="" ns3:_="">
     <xsd:import namespace="2a6ad9cf-3093-4c99-8f80-81355efdbac7"/>
@@ -3147,15 +3167,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{001D9B0F-CDDF-448E-ACE8-48D0613D3A49}">
   <ds:schemaRefs>
@@ -3168,6 +3179,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A538D943-FF22-415A-8070-B6C07B83D716}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB0A90-D35D-4C4D-834D-FEE42FEA36E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3184,12 +3203,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A538D943-FF22-415A-8070-B6C07B83D716}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>